--- a/data/trans_bre/P8_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-1,26</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-11,19%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-10,9%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-56,17%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-54,36%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-42,55%</t>
+          <t>-64,22%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-65,31%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-67,25%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-42,54%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-30,6%</t>
         </is>
       </c>
     </row>
@@ -694,50 +746,70 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,74</t>
+          <t>-3,84; 7,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; -1,01</t>
+          <t>-6,39; -0,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,92</t>
+          <t>-9,54; 0,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,17</t>
+          <t>-9,84; 0,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,51</t>
+          <t>-9,4; 0,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>-6,23; 2,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; 2,69</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 483,37</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 113,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 151,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 84,34</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-1,59</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-69,56%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,75%</t>
+          <t>-6,32</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-41,81%</t>
+          <t>-69,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-26,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-23,63%</t>
+          <t>-42,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-6,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-23,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-53,07%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -0,76</t>
+          <t>-12,03; -1,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 2,99</t>
+          <t>-5,94; 3,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 1,66</t>
+          <t>-7,7; 0,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,7</t>
+          <t>-4,93; 3,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 4,32</t>
+          <t>-4,9; 7,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-92,93; 8,95</t>
+          <t>-8,42; 5,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,57; 132,78</t>
+          <t>-13,59; 0,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 47,8</t>
+          <t>-93,28; -13,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-58,78; 87,94</t>
+          <t>-79,34; 125,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 160,05</t>
+          <t>-76,01; 24,79</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-54,82; 96,4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-44,0; 192,54</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-78,09; 212,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-78,85; 21,15</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-2,1</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-5,3</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-59,57%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-84,23%</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-64,31%</t>
+          <t>-59,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-47,86%</t>
+          <t>-84,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-67,02%</t>
+          <t>-65,2%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-48,73%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-27,79%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-67,05%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-54,17%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -0,72</t>
+          <t>-7,64; -0,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -3,62</t>
+          <t>-11,45; -3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -1,76</t>
+          <t>-9,67; -1,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -0,4</t>
+          <t>-7,44; -0,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,69; -1,42</t>
+          <t>-6,72; 2,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,16; -9,38</t>
+          <t>-9,9; -1,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-96,41; -57,7</t>
+          <t>-10,52; -0,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-83,89; -26,51</t>
+          <t>-81,72; -9,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-76,09; -4,07</t>
+          <t>-95,8; -54,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-88,45; -9,09</t>
+          <t>-84,26; -24,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-73,57; 3,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-62,82; 48,14</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-89,26; -15,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-79,61; -3,72</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-2,71</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-4,86</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>-31,9%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-38,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-45,93%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-58,43%</t>
+          <t>-34,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>-44,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-57,21%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-32,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>-33,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-42,25%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,27</t>
+          <t>-6,02; 1,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 0,83</t>
+          <t>-7,52; 1,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -0,47</t>
+          <t>-9,02; -0,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -2,7</t>
+          <t>-11,29; -1,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 1,87</t>
+          <t>-6,8; 1,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 31,39</t>
+          <t>-8,26; 1,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,21; 19,58</t>
+          <t>-10,21; 0,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -3,81</t>
+          <t>-65,76; 37,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,77; -29,37</t>
+          <t>-68,91; 36,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-69,68; 36,02</t>
+          <t>-69,07; -3,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-74,6; -19,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-65,92; 35,21</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-68,18; 40,83</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-70,13; 6,39</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>51,56%</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>44,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40,69%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,59%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-20,77%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 10,17</t>
+          <t>-2,22; 9,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 11,1</t>
+          <t>-3,55; 11,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 11,3</t>
+          <t>-3,29; 10,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 10,35</t>
+          <t>-2,82; 10,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 6,17</t>
+          <t>-5,61; 8,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 183,57</t>
+          <t>-7,29; 5,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 184,56</t>
+          <t>-11,06; 4,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 170,75</t>
+          <t>-25,44; 179,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,02; 134,47</t>
+          <t>-29,31; 183,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 72,19</t>
+          <t>-27,94; 150,64</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-22,93; 152,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-38,04; 114,29</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-45,45; 65,01</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-50,14; 32,31</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,02</t>
+          <t>12,09</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,38%</t>
+          <t>22,06</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>107,0%</t>
+          <t>14,47</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>63,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>100,76%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>153,35%</t>
+          <t>88,29%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>100,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>85,57%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>153,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 13,8</t>
+          <t>0,22; 13,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 19,02</t>
+          <t>3,74; 18,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 15,7</t>
+          <t>3,01; 16,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 18,98</t>
+          <t>4,47; 18,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,11; 33,13</t>
+          <t>2,24; 22,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,53; 142,04</t>
+          <t>11,02; 33,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,17; 230,01</t>
+          <t>4,22; 23,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,67; 206,74</t>
+          <t>-0,52; 153,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,59; 210,19</t>
+          <t>22,12; 235,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>59,6; 337,32</t>
+          <t>19,63; 223,44</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>28,02; 223,29</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 232,63</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>56,73; 340,43</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>21,09; 224,81</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>5,13%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>-3,2%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>36,96%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,47</t>
+          <t>-1,78; 2,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,93</t>
+          <t>-1,49; 2,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,94</t>
+          <t>-2,63; 1,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,78</t>
+          <t>-1,73; 2,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,55</t>
+          <t>-1,04; 4,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 40,06</t>
+          <t>-0,02; 6,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 43,71</t>
+          <t>-3,17; 2,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 26,79</t>
+          <t>-19,78; 39,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 38,66</t>
+          <t>-16,81; 48,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 85,55</t>
+          <t>-26,29; 26,2</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; 35,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 58,12</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 83,73</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-24,66; 27,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
